--- a/pred_ohlcv/54/2019-10-17 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-17 ORBS ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="D2" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E2" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>8800</v>
+        <v>538672.1010365854</v>
       </c>
       <c r="G2" t="n">
-        <v>11.84499999999996</v>
+        <v>11.83499999999996</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -449,9 +457,12 @@
         <v>8800</v>
       </c>
       <c r="G3" t="n">
-        <v>11.85499999999996</v>
+        <v>11.84499999999996</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,13 +483,16 @@
         <v>12.1</v>
       </c>
       <c r="F4" t="n">
-        <v>3887.272727272727</v>
+        <v>8800</v>
       </c>
       <c r="G4" t="n">
-        <v>11.86333333333329</v>
+        <v>11.85499999999996</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -498,12 +512,15 @@
         <v>12.1</v>
       </c>
       <c r="F5" t="n">
-        <v>40413.41507272727</v>
+        <v>3887.272727272727</v>
       </c>
       <c r="G5" t="n">
-        <v>11.87166666666663</v>
+        <v>11.86333333333329</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C6" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D6" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E6" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>40413.41507272727</v>
       </c>
       <c r="G6" t="n">
-        <v>11.88166666666663</v>
+        <v>11.87166666666663</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C7" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D7" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E7" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F7" t="n">
-        <v>24081.6265</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>11.88666666666663</v>
+        <v>11.88166666666663</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>12.1</v>
       </c>
       <c r="F8" t="n">
-        <v>18060</v>
+        <v>24081.6265</v>
       </c>
       <c r="G8" t="n">
-        <v>11.89166666666663</v>
+        <v>11.88666666666663</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -605,9 +631,12 @@
         <v>18060</v>
       </c>
       <c r="G9" t="n">
-        <v>11.89666666666663</v>
+        <v>11.89166666666663</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>12.1</v>
       </c>
       <c r="F10" t="n">
-        <v>6020</v>
+        <v>18060</v>
       </c>
       <c r="G10" t="n">
-        <v>11.90166666666663</v>
+        <v>11.89666666666663</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>12.1</v>
       </c>
       <c r="F11" t="n">
-        <v>8886.358</v>
+        <v>6020</v>
       </c>
       <c r="G11" t="n">
-        <v>11.9033333333333</v>
+        <v>11.90166666666663</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,12 +715,15 @@
         <v>12.1</v>
       </c>
       <c r="F12" t="n">
-        <v>22380</v>
+        <v>8886.358</v>
       </c>
       <c r="G12" t="n">
-        <v>11.9083333333333</v>
+        <v>11.9033333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -709,9 +747,12 @@
         <v>22380</v>
       </c>
       <c r="G13" t="n">
-        <v>11.9133333333333</v>
+        <v>11.9083333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -735,9 +776,12 @@
         <v>22380</v>
       </c>
       <c r="G14" t="n">
-        <v>11.91999999999997</v>
+        <v>11.9133333333333</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,21 +793,24 @@
         <v>12.1</v>
       </c>
       <c r="C15" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D15" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E15" t="n">
         <v>12.1</v>
       </c>
       <c r="F15" t="n">
-        <v>32050.1639</v>
+        <v>22380</v>
       </c>
       <c r="G15" t="n">
-        <v>11.92666666666664</v>
+        <v>11.91999999999997</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>12.1</v>
       </c>
       <c r="C16" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D16" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E16" t="n">
         <v>12.1</v>
       </c>
       <c r="F16" t="n">
-        <v>7460</v>
+        <v>32050.1639</v>
       </c>
       <c r="G16" t="n">
-        <v>11.9333333333333</v>
+        <v>11.92666666666664</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>12.1</v>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>7460</v>
       </c>
       <c r="G17" t="n">
-        <v>11.93499999999997</v>
+        <v>11.9333333333333</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>12.1</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="n">
-        <v>11.93666666666664</v>
+        <v>11.93499999999997</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C19" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F19" t="n">
-        <v>17743.2151</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>11.93999999999997</v>
+        <v>11.93666666666664</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>12</v>
       </c>
       <c r="F20" t="n">
-        <v>134290.2003</v>
+        <v>17743.2151</v>
       </c>
       <c r="G20" t="n">
-        <v>11.9433333333333</v>
+        <v>11.93999999999997</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>16067.6852</v>
+        <v>134290.2003</v>
       </c>
       <c r="G21" t="n">
-        <v>11.94499999999997</v>
+        <v>11.9433333333333</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>7862.2314</v>
+        <v>16067.6852</v>
       </c>
       <c r="G22" t="n">
-        <v>11.9483333333333</v>
+        <v>11.94499999999997</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F23" t="n">
-        <v>16220.9999</v>
+        <v>7862.2314</v>
       </c>
       <c r="G23" t="n">
-        <v>11.94999999999997</v>
+        <v>11.9483333333333</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>710.2800999999999</v>
+        <v>16220.9999</v>
       </c>
       <c r="G24" t="n">
-        <v>11.95166666666664</v>
+        <v>11.94999999999997</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>68694.39870000001</v>
+        <v>710.2800999999999</v>
       </c>
       <c r="G25" t="n">
         <v>11.95166666666664</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>11.9</v>
       </c>
       <c r="F26" t="n">
-        <v>278533.4683</v>
+        <v>68694.39870000001</v>
       </c>
       <c r="G26" t="n">
         <v>11.95166666666664</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>11.9</v>
       </c>
       <c r="F27" t="n">
-        <v>3847.7764</v>
+        <v>278533.4683</v>
       </c>
       <c r="G27" t="n">
         <v>11.95166666666664</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>11.9</v>
       </c>
       <c r="F28" t="n">
-        <v>42925.9996</v>
+        <v>3847.7764</v>
       </c>
       <c r="G28" t="n">
         <v>11.95166666666664</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>11.9</v>
       </c>
       <c r="F29" t="n">
-        <v>2970</v>
+        <v>42925.9996</v>
       </c>
       <c r="G29" t="n">
-        <v>11.95333333333331</v>
+        <v>11.95166666666664</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C30" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D30" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E30" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F30" t="n">
-        <v>135481.0847</v>
+        <v>2970</v>
       </c>
       <c r="G30" t="n">
         <v>11.95333333333331</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,21 +1257,24 @@
         <v>11.8</v>
       </c>
       <c r="C31" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D31" t="n">
         <v>11.8</v>
       </c>
       <c r="E31" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F31" t="n">
-        <v>64518</v>
+        <v>135481.0847</v>
       </c>
       <c r="G31" t="n">
-        <v>11.95166666666664</v>
+        <v>11.95333333333331</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C32" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D32" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E32" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F32" t="n">
-        <v>11</v>
+        <v>64518</v>
       </c>
       <c r="G32" t="n">
-        <v>11.95333333333331</v>
+        <v>11.95166666666664</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C33" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D33" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E33" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G33" t="n">
         <v>11.95333333333331</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C34" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D34" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E34" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F34" t="n">
-        <v>24985.97771983471</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>11.95833333333331</v>
+        <v>11.95333333333331</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,21 +1373,24 @@
         <v>11.9</v>
       </c>
       <c r="C35" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D35" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E35" t="n">
         <v>11.9</v>
       </c>
       <c r="F35" t="n">
-        <v>9390</v>
+        <v>24985.97771983471</v>
       </c>
       <c r="G35" t="n">
-        <v>11.96166666666664</v>
+        <v>11.95833333333331</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1307,9 +1414,12 @@
         <v>9390</v>
       </c>
       <c r="G36" t="n">
-        <v>11.96333333333331</v>
+        <v>11.96166666666664</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>11.9</v>
       </c>
       <c r="F37" t="n">
-        <v>3070</v>
+        <v>9390</v>
       </c>
       <c r="G37" t="n">
-        <v>11.96499999999997</v>
+        <v>11.96333333333331</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>11.9</v>
       </c>
       <c r="F38" t="n">
-        <v>1285.9663</v>
+        <v>3070</v>
       </c>
       <c r="G38" t="n">
-        <v>11.96833333333331</v>
+        <v>11.96499999999997</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>11.9</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>1285.9663</v>
       </c>
       <c r="G39" t="n">
-        <v>11.96999999999997</v>
+        <v>11.96833333333331</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>11.9</v>
       </c>
       <c r="F40" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>11.97166666666664</v>
+        <v>11.96999999999997</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>11.9</v>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G41" t="n">
-        <v>11.97499999999997</v>
+        <v>11.97166666666664</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C42" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D42" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E42" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F42" t="n">
-        <v>25966.4719</v>
+        <v>50</v>
       </c>
       <c r="G42" t="n">
         <v>11.97499999999997</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>11.8</v>
       </c>
       <c r="F43" t="n">
-        <v>702.1494</v>
+        <v>25966.4719</v>
       </c>
       <c r="G43" t="n">
         <v>11.97499999999997</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C44" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D44" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E44" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F44" t="n">
-        <v>1297.8506</v>
+        <v>702.1494</v>
       </c>
       <c r="G44" t="n">
-        <v>11.97333333333331</v>
+        <v>11.97499999999997</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C45" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D45" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E45" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F45" t="n">
-        <v>1379.5126</v>
+        <v>1297.8506</v>
       </c>
       <c r="G45" t="n">
         <v>11.97333333333331</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C46" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D46" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E46" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F46" t="n">
-        <v>43011.5571</v>
+        <v>1379.5126</v>
       </c>
       <c r="G46" t="n">
-        <v>11.96999999999998</v>
+        <v>11.97333333333331</v>
       </c>
       <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>11.7</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>43011.5571</v>
       </c>
       <c r="G47" t="n">
         <v>11.96999999999998</v>
       </c>
       <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C48" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D48" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E48" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F48" t="n">
-        <v>2500</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
         <v>11.96999999999998</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C49" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D49" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E49" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>2500</v>
       </c>
       <c r="G49" t="n">
-        <v>11.96666666666664</v>
+        <v>11.96999999999998</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C50" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D50" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E50" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F50" t="n">
-        <v>61135.5683</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>11.96499999999998</v>
+        <v>11.96666666666664</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>11.8</v>
       </c>
       <c r="F51" t="n">
-        <v>6345.7876</v>
+        <v>61135.5683</v>
       </c>
       <c r="G51" t="n">
-        <v>11.96333333333331</v>
+        <v>11.96499999999998</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C52" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D52" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E52" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>6345.7876</v>
       </c>
       <c r="G52" t="n">
-        <v>11.95999999999998</v>
+        <v>11.96333333333331</v>
       </c>
       <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>11.7</v>
       </c>
       <c r="F53" t="n">
-        <v>1368.6728</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>11.95499999999998</v>
+        <v>11.95999999999998</v>
       </c>
       <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C54" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D54" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E54" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F54" t="n">
-        <v>4705.3781</v>
+        <v>1368.6728</v>
       </c>
       <c r="G54" t="n">
         <v>11.95499999999998</v>
       </c>
       <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C55" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D55" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E55" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F55" t="n">
-        <v>3140</v>
+        <v>4705.3781</v>
       </c>
       <c r="G55" t="n">
-        <v>11.95166666666664</v>
+        <v>11.95499999999998</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C56" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D56" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E56" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>3140</v>
       </c>
       <c r="G56" t="n">
-        <v>11.94666666666665</v>
+        <v>11.95166666666664</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C57" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D57" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E57" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>11.94499999999998</v>
+        <v>11.94666666666665</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C58" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D58" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E58" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G58" t="n">
-        <v>11.94166666666664</v>
+        <v>11.94499999999998</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1893,21 +2069,24 @@
         <v>11.8</v>
       </c>
       <c r="C59" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D59" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E59" t="n">
         <v>11.8</v>
       </c>
       <c r="F59" t="n">
-        <v>6569.8065</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
         <v>11.94166666666664</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,7 +2095,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C60" t="n">
         <v>11.9</v>
@@ -1925,15 +2104,18 @@
         <v>11.9</v>
       </c>
       <c r="E60" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F60" t="n">
-        <v>29569.1604</v>
+        <v>6569.8065</v>
       </c>
       <c r="G60" t="n">
         <v>11.94166666666664</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C61" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D61" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E61" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>29569.1604</v>
       </c>
       <c r="G61" t="n">
-        <v>11.93333333333331</v>
+        <v>11.94166666666664</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,21 +2156,24 @@
         <v>11.8</v>
       </c>
       <c r="C62" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D62" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E62" t="n">
         <v>11.8</v>
       </c>
       <c r="F62" t="n">
-        <v>48146.8396</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>11.92999999999998</v>
+        <v>11.93333333333331</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1997,21 +2185,24 @@
         <v>11.8</v>
       </c>
       <c r="C63" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D63" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E63" t="n">
         <v>11.8</v>
       </c>
       <c r="F63" t="n">
-        <v>3367.5764</v>
+        <v>48146.8396</v>
       </c>
       <c r="G63" t="n">
-        <v>11.92499999999998</v>
+        <v>11.92999999999998</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C64" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D64" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E64" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F64" t="n">
-        <v>7098.375</v>
+        <v>3367.5764</v>
       </c>
       <c r="G64" t="n">
-        <v>11.92333333333331</v>
+        <v>11.92499999999998</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C65" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D65" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E65" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>7098.375</v>
       </c>
       <c r="G65" t="n">
-        <v>11.91833333333331</v>
+        <v>11.92333333333331</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C66" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D66" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E66" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F66" t="n">
-        <v>50000</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>11.91333333333331</v>
+        <v>11.91833333333331</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C67" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D67" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E67" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F67" t="n">
-        <v>168.175</v>
+        <v>50000</v>
       </c>
       <c r="G67" t="n">
-        <v>11.91166666666664</v>
+        <v>11.91333333333331</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,7 +2327,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C68" t="n">
         <v>12</v>
@@ -2133,15 +2336,18 @@
         <v>12</v>
       </c>
       <c r="E68" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F68" t="n">
-        <v>34468.4708</v>
+        <v>168.175</v>
       </c>
       <c r="G68" t="n">
-        <v>11.90999999999997</v>
+        <v>11.91166666666664</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2153,21 +2359,24 @@
         <v>11.8</v>
       </c>
       <c r="C69" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D69" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E69" t="n">
         <v>11.8</v>
       </c>
       <c r="F69" t="n">
-        <v>8143.7121</v>
+        <v>34468.4708</v>
       </c>
       <c r="G69" t="n">
-        <v>11.90499999999997</v>
+        <v>11.90999999999997</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>11.8</v>
       </c>
       <c r="F70" t="n">
-        <v>5000.0001</v>
+        <v>8143.7121</v>
       </c>
       <c r="G70" t="n">
-        <v>11.89999999999997</v>
+        <v>11.90499999999997</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>11.8</v>
       </c>
       <c r="F71" t="n">
-        <v>4500</v>
+        <v>5000.0001</v>
       </c>
       <c r="G71" t="n">
-        <v>11.89499999999997</v>
+        <v>11.89999999999997</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C72" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D72" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E72" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F72" t="n">
-        <v>253.4166</v>
+        <v>4500</v>
       </c>
       <c r="G72" t="n">
-        <v>11.8933333333333</v>
+        <v>11.89499999999997</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D73" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E73" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>253.4166</v>
       </c>
       <c r="G73" t="n">
-        <v>11.88999999999997</v>
+        <v>11.8933333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>11.9</v>
       </c>
       <c r="F74" t="n">
-        <v>37869.7999</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>11.88666666666663</v>
+        <v>11.88999999999997</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C75" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D75" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E75" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F75" t="n">
-        <v>12</v>
+        <v>37869.7999</v>
       </c>
       <c r="G75" t="n">
-        <v>11.8833333333333</v>
+        <v>11.88666666666663</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C76" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D76" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E76" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G76" t="n">
-        <v>11.87999999999997</v>
+        <v>11.8833333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>11.9</v>
       </c>
       <c r="F77" t="n">
-        <v>68607.5107</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>11.87666666666663</v>
+        <v>11.87999999999997</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C78" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D78" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E78" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>68607.5107</v>
       </c>
       <c r="G78" t="n">
-        <v>11.87166666666663</v>
+        <v>11.87666666666663</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C79" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D79" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E79" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F79" t="n">
-        <v>165232.1497</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>11.86999999999996</v>
+        <v>11.87166666666663</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C80" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D80" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E80" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F80" t="n">
-        <v>164695.2194</v>
+        <v>165232.1497</v>
       </c>
       <c r="G80" t="n">
-        <v>11.87166666666663</v>
+        <v>11.86999999999996</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>12</v>
       </c>
       <c r="C81" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D81" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E81" t="n">
         <v>12</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>164695.2194</v>
       </c>
       <c r="G81" t="n">
         <v>11.87166666666663</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>12</v>
       </c>
       <c r="F82" t="n">
-        <v>8437.2474</v>
+        <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>11.86999999999996</v>
+        <v>11.87166666666663</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C83" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D83" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E83" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F83" t="n">
-        <v>15127.2509</v>
+        <v>8437.2474</v>
       </c>
       <c r="G83" t="n">
-        <v>11.87166666666663</v>
+        <v>11.86999999999996</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C84" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D84" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E84" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F84" t="n">
-        <v>225953.1906</v>
+        <v>15127.2509</v>
       </c>
       <c r="G84" t="n">
-        <v>11.87499999999996</v>
+        <v>11.87166666666663</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>12.2</v>
       </c>
       <c r="F85" t="n">
-        <v>1421.5574</v>
+        <v>225953.1906</v>
       </c>
       <c r="G85" t="n">
-        <v>11.87999999999997</v>
+        <v>11.87499999999996</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C86" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D86" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E86" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F86" t="n">
-        <v>35583.8808</v>
+        <v>1421.5574</v>
       </c>
       <c r="G86" t="n">
-        <v>11.8833333333333</v>
+        <v>11.87999999999997</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C87" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D87" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E87" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F87" t="n">
-        <v>40983.6065</v>
+        <v>35583.8808</v>
       </c>
       <c r="G87" t="n">
-        <v>11.8883333333333</v>
+        <v>11.8833333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>12.2</v>
       </c>
       <c r="F88" t="n">
-        <v>7883.1252</v>
+        <v>40983.6065</v>
       </c>
       <c r="G88" t="n">
-        <v>11.8933333333333</v>
+        <v>11.8883333333333</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>12.2</v>
       </c>
       <c r="F89" t="n">
-        <v>50</v>
+        <v>7883.1252</v>
       </c>
       <c r="G89" t="n">
-        <v>11.8983333333333</v>
+        <v>11.8933333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C90" t="n">
         <v>12.2</v>
       </c>
       <c r="D90" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E90" t="n">
         <v>12.2</v>
       </c>
       <c r="F90" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G90" t="n">
-        <v>11.90499999999997</v>
+        <v>11.8983333333333</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C91" t="n">
         <v>12.2</v>
       </c>
       <c r="D91" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E91" t="n">
         <v>12.2</v>
       </c>
       <c r="F91" t="n">
-        <v>2600</v>
+        <v>22</v>
       </c>
       <c r="G91" t="n">
-        <v>11.9133333333333</v>
+        <v>11.90499999999997</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>12.2</v>
       </c>
       <c r="F92" t="n">
-        <v>10</v>
+        <v>2600</v>
       </c>
       <c r="G92" t="n">
-        <v>11.9183333333333</v>
+        <v>11.9133333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>12.2</v>
       </c>
       <c r="F93" t="n">
-        <v>3361.3444</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>11.92499999999997</v>
+        <v>11.9183333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>12.2</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>3361.3444</v>
       </c>
       <c r="G94" t="n">
-        <v>11.92666666666664</v>
+        <v>11.92499999999997</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>12.2</v>
       </c>
       <c r="F95" t="n">
-        <v>30000</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>11.93166666666664</v>
+        <v>11.92666666666664</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2855,21 +3142,24 @@
         <v>12.2</v>
       </c>
       <c r="C96" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D96" t="n">
         <v>12.2</v>
       </c>
       <c r="E96" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F96" t="n">
-        <v>45995.1533</v>
+        <v>30000</v>
       </c>
       <c r="G96" t="n">
-        <v>11.93499999999998</v>
+        <v>11.93166666666664</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C97" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D97" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E97" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F97" t="n">
-        <v>241.9354</v>
+        <v>45995.1533</v>
       </c>
       <c r="G97" t="n">
-        <v>11.94333333333331</v>
+        <v>11.93499999999998</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C98" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="D98" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E98" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>241.9354</v>
       </c>
       <c r="G98" t="n">
-        <v>11.94666666666664</v>
+        <v>11.94333333333331</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>12.1</v>
       </c>
       <c r="F99" t="n">
-        <v>174518.1842</v>
+        <v>20</v>
       </c>
       <c r="G99" t="n">
-        <v>11.94999999999998</v>
+        <v>11.94666666666664</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C100" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D100" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E100" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F100" t="n">
-        <v>11</v>
+        <v>174518.1842</v>
       </c>
       <c r="G100" t="n">
-        <v>11.95666666666664</v>
+        <v>11.94999999999998</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="C101" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="D101" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E101" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G101" t="n">
-        <v>11.95999999999998</v>
+        <v>11.95666666666664</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>12.1</v>
       </c>
       <c r="F102" t="n">
-        <v>40890.395</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>11.96499999999998</v>
+        <v>11.95999999999998</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C103" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D103" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E103" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F103" t="n">
-        <v>6147.6229</v>
+        <v>40890.395</v>
       </c>
       <c r="G103" t="n">
-        <v>11.97166666666665</v>
+        <v>11.96499999999998</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C104" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D104" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E104" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F104" t="n">
-        <v>91124.0831</v>
+        <v>6147.6229</v>
       </c>
       <c r="G104" t="n">
-        <v>11.97833333333331</v>
+        <v>11.97166666666665</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>12.1</v>
       </c>
       <c r="F105" t="n">
-        <v>810</v>
+        <v>91124.0831</v>
       </c>
       <c r="G105" t="n">
-        <v>11.98166666666665</v>
+        <v>11.97833333333331</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C106" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D106" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E106" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>810</v>
       </c>
       <c r="G106" t="n">
-        <v>11.98666666666665</v>
+        <v>11.98166666666665</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C107" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D107" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E107" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F107" t="n">
-        <v>63891.157</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>11.99333333333331</v>
+        <v>11.98666666666665</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C108" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D108" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E108" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>63891.157</v>
       </c>
       <c r="G108" t="n">
-        <v>11.99499999999998</v>
+        <v>11.99333333333331</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D109" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E109" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F109" t="n">
-        <v>2783.6387</v>
+        <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>12.00166666666665</v>
+        <v>11.99499999999998</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C110" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D110" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E110" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F110" t="n">
-        <v>118</v>
+        <v>2783.6387</v>
       </c>
       <c r="G110" t="n">
-        <v>12.00833333333332</v>
+        <v>12.00166666666665</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>12.2</v>
       </c>
       <c r="F111" t="n">
-        <v>4658.5901</v>
+        <v>118</v>
       </c>
       <c r="G111" t="n">
-        <v>12.01499999999998</v>
+        <v>12.00833333333332</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>12.2</v>
       </c>
       <c r="F112" t="n">
-        <v>16393.4426</v>
+        <v>4658.5901</v>
       </c>
       <c r="G112" t="n">
-        <v>12.02333333333332</v>
+        <v>12.01499999999998</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,544 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C113" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D113" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E113" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F113" t="n">
-        <v>10</v>
+        <v>16393.4426</v>
       </c>
       <c r="G113" t="n">
-        <v>12.02999999999998</v>
+        <v>12.02333333333332</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C114" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D114" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E114" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F114" t="n">
-        <v>11</v>
-      </c>
-      <c r="G114" t="n">
-        <v>12.03666666666665</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C115" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D115" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E115" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F115" t="n">
-        <v>29440.4918</v>
-      </c>
-      <c r="G115" t="n">
-        <v>12.04333333333332</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C116" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D116" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E116" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F116" t="n">
-        <v>10</v>
-      </c>
-      <c r="G116" t="n">
-        <v>12.04999999999998</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C117" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D117" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E117" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F117" t="n">
-        <v>11</v>
-      </c>
-      <c r="G117" t="n">
-        <v>12.05499999999998</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C118" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D118" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F118" t="n">
-        <v>49175.4019</v>
-      </c>
-      <c r="G118" t="n">
-        <v>12.06166666666665</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C119" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D119" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E119" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F119" t="n">
-        <v>3889.2804</v>
-      </c>
-      <c r="G119" t="n">
-        <v>12.06833333333332</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C120" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D120" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E120" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F120" t="n">
-        <v>23626.275</v>
-      </c>
-      <c r="G120" t="n">
-        <v>12.07499999999999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C121" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D121" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E121" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F121" t="n">
-        <v>121224.7617</v>
-      </c>
-      <c r="G121" t="n">
-        <v>12.08333333333332</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C122" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D122" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E122" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F122" t="n">
-        <v>8064.516</v>
-      </c>
-      <c r="G122" t="n">
-        <v>12.09166666666665</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C123" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D123" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E123" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F123" t="n">
-        <v>102419.3549</v>
-      </c>
-      <c r="G123" t="n">
-        <v>12.10166666666665</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C124" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D124" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E124" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F124" t="n">
-        <v>4400</v>
-      </c>
-      <c r="G124" t="n">
-        <v>12.10999999999999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C125" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D125" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E125" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F125" t="n">
-        <v>6290.3225</v>
-      </c>
-      <c r="G125" t="n">
-        <v>12.11999999999999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C126" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D126" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E126" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F126" t="n">
-        <v>14395.1806</v>
-      </c>
-      <c r="G126" t="n">
-        <v>12.12833333333332</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C127" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D127" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E127" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F127" t="n">
-        <v>10</v>
-      </c>
-      <c r="G127" t="n">
-        <v>12.13333333333332</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C128" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D128" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E128" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F128" t="n">
-        <v>16129.0321</v>
-      </c>
-      <c r="G128" t="n">
-        <v>12.13999999999998</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C129" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D129" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E129" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F129" t="n">
-        <v>10</v>
-      </c>
-      <c r="G129" t="n">
-        <v>12.14833333333332</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C130" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D130" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E130" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F130" t="n">
-        <v>100</v>
-      </c>
-      <c r="G130" t="n">
-        <v>12.15999999999999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C131" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D131" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E131" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F131" t="n">
-        <v>10</v>
-      </c>
-      <c r="G131" t="n">
-        <v>12.16833333333332</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C132" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D132" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E132" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F132" t="n">
-        <v>316301.1625</v>
-      </c>
-      <c r="G132" t="n">
-        <v>12.17333333333332</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C133" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D133" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E133" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F133" t="n">
-        <v>800.0232</v>
-      </c>
-      <c r="G133" t="n">
-        <v>12.17999999999998</v>
-      </c>
-      <c r="H133" t="n">
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
